--- a/media/excel/comp_main-two.xlsx
+++ b/media/excel/comp_main-two.xlsx
@@ -38,13 +38,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFA500"/>
+        <fgColor rgb="0000FFFF"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0000FFFF"/>
-      </patternFill>
+      <patternFill patternType="solid"/>
     </fill>
   </fills>
   <borders count="2">

--- a/media/excel/comp_main-two.xlsx
+++ b/media/excel/comp_main-two.xlsx
@@ -468,7 +468,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>*23344.0</t>
+          <t>*23344.0 &gt;&gt;&gt; 2114.45</t>
         </is>
       </c>
       <c r="B2" s="3" t="n">
@@ -498,7 +498,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>*1.0</t>
+          <t>*1.0 &gt;&gt;&gt; 2287.63</t>
         </is>
       </c>
       <c r="B4" s="3" t="n">
@@ -520,12 +520,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>*2344677.0</t>
+          <t>*2344677.0 &gt;&gt;&gt; 20332.81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>*565.0</t>
+          <t>*565.0 &gt;&gt;&gt; 0.990438722</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>*23344</t>
+          <t>*23344 &gt;&gt;&gt; 308964</t>
         </is>
       </c>
       <c r="C7" s="3" t="n">
@@ -571,7 +571,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>*7786.0</t>
+          <t>*7786.0 &gt;&gt;&gt; 0.994147744</t>
         </is>
       </c>
     </row>
@@ -598,7 +598,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>*6778.0</t>
+          <t>*6778.0 &gt;&gt;&gt; 20237.28</t>
         </is>
       </c>
       <c r="D10" s="3" t="n">
@@ -608,7 +608,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>*23424.0</t>
+          <t>*23424.0 &gt;&gt;&gt; 2540.89</t>
         </is>
       </c>
       <c r="B11" s="3" t="n">
@@ -652,7 +652,7 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>*4678.0</t>
+          <t>*4678.0 &gt;&gt;&gt; 2136.69</t>
         </is>
       </c>
       <c r="B14" s="3" t="n">
@@ -733,7 +733,7 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>*2222.0</t>
+          <t>*2222.0 &gt;&gt;&gt; 0.995467161</t>
         </is>
       </c>
     </row>
